--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana Jaffé\Documents\CAB\Hotel_Bookings-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana Jaffé\Documents\CAB\Hotel_Bookings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>File Name</t>
   </si>
@@ -177,6 +177,63 @@
   </si>
   <si>
     <t>0.761949429146883</t>
+  </si>
+  <si>
+    <t>Top 15 Features</t>
+  </si>
+  <si>
+    <t>0.7882569729458079</t>
+  </si>
+  <si>
+    <t>0.519299661509423</t>
+  </si>
+  <si>
+    <t>0.7740598040036853</t>
+  </si>
+  <si>
+    <t>0.4653630112981626</t>
+  </si>
+  <si>
+    <t>0.793533796800402</t>
+  </si>
+  <si>
+    <t>0.5315786329306995</t>
+  </si>
+  <si>
+    <t>0.8546779462266522</t>
+  </si>
+  <si>
+    <t>0.6898430989767037</t>
+  </si>
+  <si>
+    <t>0.8383030404556495</t>
+  </si>
+  <si>
+    <t>0.6543111794742347</t>
+  </si>
+  <si>
+    <t>0.8386380768908619</t>
+  </si>
+  <si>
+    <t>0.6549635254983832</t>
+  </si>
+  <si>
+    <t>0.8825697294580785</t>
+  </si>
+  <si>
+    <t>0.7435011804654037</t>
+  </si>
+  <si>
+    <t>0.8736075048161488</t>
+  </si>
+  <si>
+    <t>0.723925307647856</t>
+  </si>
+  <si>
+    <t>0.875408325655415</t>
+  </si>
+  <si>
+    <t>0.7285716221293834</t>
   </si>
 </sst>
 </file>
@@ -521,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O2"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -724,6 +781,116 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="1">
+        <v>800</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>File Name</t>
   </si>
@@ -179,9 +179,6 @@
     <t>0.761949429146883</t>
   </si>
   <si>
-    <t>Top 15 Features</t>
-  </si>
-  <si>
     <t>0.7882569729458079</t>
   </si>
   <si>
@@ -234,13 +231,85 @@
   </si>
   <si>
     <t>0.7285716221293834</t>
+  </si>
+  <si>
+    <t>Top 15 Features according to prediction from complete dataset</t>
+  </si>
+  <si>
+    <t>Compact df (only the 10 most important features according to correlation matrix)</t>
+  </si>
+  <si>
+    <t>0.7747717564285116</t>
+  </si>
+  <si>
+    <t>0.47179975519712924</t>
+  </si>
+  <si>
+    <t>Hotel_Cancellation_Prediction_Compact</t>
+  </si>
+  <si>
+    <t>Hotel_Cancellation_Prediction-Dummy_Normalization_Compact</t>
+  </si>
+  <si>
+    <t>Hotel_Cancellation_Prediction_Dummy_Standardization_Compact</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>0.8294245749225229</t>
+  </si>
+  <si>
+    <t>0.6262951633414979</t>
+  </si>
+  <si>
+    <t>0.8118303767157937</t>
+  </si>
+  <si>
+    <t>0.8243152692855348</t>
+  </si>
+  <si>
+    <t>0.617858354800652</t>
+  </si>
+  <si>
+    <t>0.834156964569897</t>
+  </si>
+  <si>
+    <t>0.6390359440520541</t>
+  </si>
+  <si>
+    <t>0.7810955691431443</t>
+  </si>
+  <si>
+    <t>0.5025647326457989</t>
+  </si>
+  <si>
+    <t>0.8281263087360751</t>
+  </si>
+  <si>
+    <t>0.6230303963516459</t>
+  </si>
+  <si>
+    <t>0.8063950063516688</t>
+  </si>
+  <si>
+    <t>0.8086523159393584</t>
+  </si>
+  <si>
+    <t>0.5801486256238693</t>
+  </si>
+  <si>
+    <t>0.8298433704665382</t>
+  </si>
+  <si>
+    <t>0.629131350649202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -251,6 +320,23 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Var(--vscode-editor-font-family"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -285,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -298,6 +384,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -578,317 +672,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.54296875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="13">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1">
+      <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1">
+        <v>800</v>
+      </c>
       <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1">
-        <v>800</v>
-      </c>
-      <c r="N2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="1">
+      <c r="H3" s="1">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="1">
+      <c r="K3" s="1">
         <v>800</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="1">
+      <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1">
+        <v>800</v>
+      </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="1">
-        <v>800</v>
-      </c>
-      <c r="N4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="13">
+      <c r="A6" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="K7" s="1">
         <v>800</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="L7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="K8" s="1">
         <v>1000</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="13">
+      <c r="A11" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1">
+        <v>800</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13">
+      <c r="A18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
   <si>
     <t>File Name</t>
   </si>
@@ -299,17 +299,47 @@
     <t>0.5801486256238693</t>
   </si>
   <si>
-    <t>0.8298433704665382</t>
-  </si>
-  <si>
-    <t>0.629131350649202</t>
+    <t>0.8298852500209398</t>
+  </si>
+  <si>
+    <t>0.6293013974844908</t>
+  </si>
+  <si>
+    <t>0.7798391825110981</t>
+  </si>
+  <si>
+    <t>0.500668425261368</t>
+  </si>
+  <si>
+    <t>0.5029562382813588</t>
+  </si>
+  <si>
+    <t>0.827037440321635</t>
+  </si>
+  <si>
+    <t>0.6211462307933655</t>
+  </si>
+  <si>
+    <t>0.8064033815610491</t>
+  </si>
+  <si>
+    <t>0.8073121701985091</t>
+  </si>
+  <si>
+    <t>0.5810713779239303</t>
+  </si>
+  <si>
+    <t>0.8289638998241059</t>
+  </si>
+  <si>
+    <t>0.6265708844346339</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -326,17 +356,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Var(--vscode-editor-font-family"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -371,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -388,10 +407,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -674,11 +689,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="C12:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.7265625" style="1" bestFit="1" customWidth="1"/>
@@ -687,7 +702,7 @@
     <col min="5" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="13">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -728,7 +743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -769,7 +784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -810,7 +825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -851,12 +866,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13">
+    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -885,7 +900,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -914,7 +929,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -943,102 +958,143 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13">
+    <row r="11" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="2" t="s">
         <v>81</v>
       </c>
       <c r="K12" s="1">
         <v>800</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L13" s="8" t="s">
+        <v>1500</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="13">
+      <c r="C14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="1">
+        <v>800</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1060,7 +1116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1071,7 +1127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
   <si>
     <t>File Name</t>
   </si>
@@ -71,9 +71,6 @@
     <t>K-Fold DecisionTree Mean</t>
   </si>
   <si>
-    <t>0.8157504103290502</t>
-  </si>
-  <si>
     <t>KNN neighbours</t>
   </si>
   <si>
@@ -333,6 +330,15 @@
   </si>
   <si>
     <t>0.6265708844346339</t>
+  </si>
+  <si>
+    <t>0.8158927888885142</t>
+  </si>
+  <si>
+    <t>K-Fold DT Parameters</t>
+  </si>
+  <si>
+    <t>max_depth =8, cv=200</t>
   </si>
 </sst>
 </file>
@@ -687,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="C12:M15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -699,15 +705,17 @@
     <col min="2" max="2" width="44.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.54296875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.90625" style="1"/>
+    <col min="5" max="6" width="10.90625" style="1"/>
+    <col min="7" max="7" width="16.90625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>12</v>
@@ -721,34 +729,37 @@
       <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -762,336 +773,347 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>800</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="1">
+        <v>800</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="1">
+      <c r="N3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="1">
         <v>800</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="1">
-        <v>800</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="L7" s="1">
+        <v>800</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="1">
+      <c r="F8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="L8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="L9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="1">
         <v>800</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="M12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="J13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="1">
         <v>800</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="M14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="1">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1500</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="1">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="1">
-        <v>800</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -1099,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>5</v>
@@ -1118,21 +1140,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>File Name</t>
   </si>
@@ -47,21 +47,9 @@
     <t>Standardization</t>
   </si>
   <si>
-    <t>0.7967585224893207</t>
-  </si>
-  <si>
-    <t>0.5380660389426496</t>
-  </si>
-  <si>
     <t>DT Kappa</t>
   </si>
   <si>
-    <t>0.8568975626099339</t>
-  </si>
-  <si>
-    <t>0.6942905953986735</t>
-  </si>
-  <si>
     <t>Logistic Regression</t>
   </si>
   <si>
@@ -80,27 +68,15 @@
     <t>KNN Kappa</t>
   </si>
   <si>
-    <t>0.8338219281346847</t>
-  </si>
-  <si>
-    <t>0.6410150707366751</t>
-  </si>
-  <si>
     <t>Random Forest Estimators</t>
   </si>
   <si>
     <t>RF</t>
   </si>
   <si>
-    <t>0.8939609682552978</t>
-  </si>
-  <si>
     <t>RF Kappa</t>
   </si>
   <si>
-    <t>0.7689293792296235</t>
-  </si>
-  <si>
     <t>test size</t>
   </si>
   <si>
@@ -332,13 +308,130 @@
     <t>0.6265708844346339</t>
   </si>
   <si>
-    <t>0.8158927888885142</t>
-  </si>
-  <si>
     <t>K-Fold DT Parameters</t>
   </si>
   <si>
     <t>max_depth =8, cv=200</t>
+  </si>
+  <si>
+    <t>AdaBoostClassifier</t>
+  </si>
+  <si>
+    <t>Ada Kappa</t>
+  </si>
+  <si>
+    <t>Ada n-estimators</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>GB Kappa</t>
+  </si>
+  <si>
+    <t>XgBoost</t>
+  </si>
+  <si>
+    <t>XgBoost parameter</t>
+  </si>
+  <si>
+    <t>XgB Kappa</t>
+  </si>
+  <si>
+    <t>learning_rate = 0.1, max_depth = 5, n_estimators = 180</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Cat Kappa</t>
+  </si>
+  <si>
+    <t>Cat Parameters</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>ETC Kappa</t>
+  </si>
+  <si>
+    <t>LGBM</t>
+  </si>
+  <si>
+    <t>LGBM Kappa</t>
+  </si>
+  <si>
+    <t>0.7984648938847412</t>
+  </si>
+  <si>
+    <t>0.5427763796467546</t>
+  </si>
+  <si>
+    <t>0.8559265162318598</t>
+  </si>
+  <si>
+    <t>0.6923185891067968</t>
+  </si>
+  <si>
+    <t>0.8316835835919806</t>
+  </si>
+  <si>
+    <t>0.6362467806217535</t>
+  </si>
+  <si>
+    <t>0.8954785672342924</t>
+  </si>
+  <si>
+    <t>0.7725057439421585</t>
+  </si>
+  <si>
+    <t>0.8442244778122641</t>
+  </si>
+  <si>
+    <t>0.6575498709610557</t>
+  </si>
+  <si>
+    <t>0.854458518580656</t>
+  </si>
+  <si>
+    <t>0.6788422402615257</t>
+  </si>
+  <si>
+    <t>0.8714453485445852</t>
+  </si>
+  <si>
+    <t>0.7203611345175442</t>
+  </si>
+  <si>
+    <t>0.878995050750776</t>
+  </si>
+  <si>
+    <t>0.7385051049277988</t>
+  </si>
+  <si>
+    <t>0.8898162905796494</t>
+  </si>
+  <si>
+    <t>0.7593380400862488</t>
+  </si>
+  <si>
+    <t>0.8598691384950927</t>
+  </si>
+  <si>
+    <t>0.6993225610579119</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>VC Kappa</t>
+  </si>
+  <si>
+    <t>0.8815955037329083</t>
+  </si>
+  <si>
+    <t>0.7391406656823827</t>
   </si>
 </sst>
 </file>
@@ -396,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -408,7 +501,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -693,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -710,420 +802,522 @@
     <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:31" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="L1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
+        <v>113</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="I2" s="1">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>19</v>
+      <c r="J2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="L2" s="1">
         <v>800</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" s="1">
+        <v>100</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1">
         <v>4</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1">
         <v>800</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1">
         <v>5</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="L4" s="1">
         <v>800</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2"/>
       <c r="L7" s="1">
         <v>800</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2"/>
       <c r="L8" s="1">
         <v>1000</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2"/>
       <c r="L9" s="1">
         <v>1000</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I12" s="1">
         <v>5</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L12" s="1">
         <v>800</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1">
         <v>5</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L13" s="1">
         <v>1500</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I14" s="1">
         <v>5</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1">
         <v>800</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1140,21 +1334,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="166">
   <si>
     <t>File Name</t>
   </si>
@@ -432,6 +432,96 @@
   </si>
   <si>
     <t>0.7391406656823827</t>
+  </si>
+  <si>
+    <t>test_size = 0.2, random_state = 4</t>
+  </si>
+  <si>
+    <t>0.7943125576713364</t>
+  </si>
+  <si>
+    <t>0.5352555652689476</t>
+  </si>
+  <si>
+    <t>0.8560942873919973</t>
+  </si>
+  <si>
+    <t>0.693108121250027</t>
+  </si>
+  <si>
+    <t>0.8187370999291761</t>
+  </si>
+  <si>
+    <t>0.8357939770153511</t>
+  </si>
+  <si>
+    <t>0.6460680089126399</t>
+  </si>
+  <si>
+    <t>0.8940525123731231</t>
+  </si>
+  <si>
+    <t>0.7701644242650292</t>
+  </si>
+  <si>
+    <t>0.8385202583675866</t>
+  </si>
+  <si>
+    <t>0.6448824273105124</t>
+  </si>
+  <si>
+    <t>0.8494253837765288</t>
+  </si>
+  <si>
+    <t>0.6689103518579924</t>
+  </si>
+  <si>
+    <t>0.8682576965019713</t>
+  </si>
+  <si>
+    <t>0.7140306235663912</t>
+  </si>
+  <si>
+    <t>0.8767301400889187</t>
+  </si>
+  <si>
+    <t>0.73346837945739</t>
+  </si>
+  <si>
+    <t>0.889774347789615</t>
+  </si>
+  <si>
+    <t>0.7599853473972558</t>
+  </si>
+  <si>
+    <t>0.8634762184380504</t>
+  </si>
+  <si>
+    <t>0.706466848539437</t>
+  </si>
+  <si>
+    <t>0.8794144786511199</t>
+  </si>
+  <si>
+    <t>0.735212980110554</t>
+  </si>
+  <si>
+    <t>0.5016007526203418</t>
+  </si>
+  <si>
+    <t>0.7806811509101586</t>
+  </si>
+  <si>
+    <t>0.8557587450717221</t>
+  </si>
+  <si>
+    <t>0.6925994416309811</t>
+  </si>
+  <si>
+    <t>0.88562201157621</t>
+  </si>
+  <si>
+    <t>0.7514504263837606</t>
   </si>
 </sst>
 </file>
@@ -457,18 +547,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -498,11 +582,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="A1:XFD1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -802,98 +886,98 @@
     <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:31" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -994,363 +1078,485 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>138</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="I3" s="1">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="L3" s="1">
         <v>800</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>29</v>
+      <c r="M3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="W3" s="1">
+        <v>100</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1">
         <v>800</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1">
+        <v>800</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="L7" s="1">
-        <v>800</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2"/>
       <c r="L8" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>160</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="G9" s="2"/>
       <c r="L9" s="1">
+        <v>800</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="L10" s="1">
         <v>1000</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="L11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="13" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="1">
-        <v>5</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="1">
-        <v>800</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="1">
-        <v>5</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1500</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I14" s="1">
         <v>5</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="L14" s="1">
         <v>800</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="1">
+        <v>800</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana Jaffé\Documents\CAB\Hotel_Bookings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana Jaffé\Documents\CAB\Hotel_Bookings-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="214">
   <si>
     <t>File Name</t>
   </si>
@@ -522,6 +522,150 @@
   </si>
   <si>
     <t>0.7514504263837606</t>
+  </si>
+  <si>
+    <t>Hotel_Cancellation_Prediction_Hotel_Types - City Hotels</t>
+  </si>
+  <si>
+    <t>Hotel_Cancellation_Prediction_Hotel_Types - Resort Hotels</t>
+  </si>
+  <si>
+    <t>0.8030063790816648</t>
+  </si>
+  <si>
+    <t>0.5802122208227821</t>
+  </si>
+  <si>
+    <t>0.8537863955030632</t>
+  </si>
+  <si>
+    <t>0.6993557860977324</t>
+  </si>
+  <si>
+    <t>0.8216054213016238</t>
+  </si>
+  <si>
+    <t>0.8313017116149813</t>
+  </si>
+  <si>
+    <t>0.6512920356617989</t>
+  </si>
+  <si>
+    <t>0.890481904882208</t>
+  </si>
+  <si>
+    <t>0.7720514914265478</t>
+  </si>
+  <si>
+    <t>0.8381860670750964</t>
+  </si>
+  <si>
+    <t>0.6616155830718575</t>
+  </si>
+  <si>
+    <t>0.8491126128971136</t>
+  </si>
+  <si>
+    <t>0.6835286826103855</t>
+  </si>
+  <si>
+    <t>0.8675551064232931</t>
+  </si>
+  <si>
+    <t>0.7240082606496837</t>
+  </si>
+  <si>
+    <t>0.8758921240447167</t>
+  </si>
+  <si>
+    <t>0.7429199574672205</t>
+  </si>
+  <si>
+    <t>0.7623653066299195</t>
+  </si>
+  <si>
+    <t>0.8860607591738774</t>
+  </si>
+  <si>
+    <t>0.865534011242342</t>
+  </si>
+  <si>
+    <t>0.7232448323499974</t>
+  </si>
+  <si>
+    <t>0.8793658813869766</t>
+  </si>
+  <si>
+    <t>0.7472019071562077</t>
+  </si>
+  <si>
+    <t>0.917852684144819</t>
+  </si>
+  <si>
+    <t>0.7905718428404711</t>
+  </si>
+  <si>
+    <t>0.8766541822721599</t>
+  </si>
+  <si>
+    <t>0.6830285530959256</t>
+  </si>
+  <si>
+    <t>0.8850187265917603</t>
+  </si>
+  <si>
+    <t>0.7038056101482937</t>
+  </si>
+  <si>
+    <t>0.9071161048689138</t>
+  </si>
+  <si>
+    <t>0.7665027722565122</t>
+  </si>
+  <si>
+    <t>0.9041198501872659</t>
+  </si>
+  <si>
+    <t>0.7588360489864275</t>
+  </si>
+  <si>
+    <t>0.9138576779026217</t>
+  </si>
+  <si>
+    <t>0.7780002144925464</t>
+  </si>
+  <si>
+    <t>0.8826466916354557</t>
+  </si>
+  <si>
+    <t>0.7097670589042506</t>
+  </si>
+  <si>
+    <t>0.9053682896379526</t>
+  </si>
+  <si>
+    <t>0.7553523399677247</t>
+  </si>
+  <si>
+    <t>0.5245092540661807</t>
+  </si>
+  <si>
+    <t>0.8235955056179776</t>
+  </si>
+  <si>
+    <t>0.8756554307116104</t>
+  </si>
+  <si>
+    <t>0.6907792610990375</t>
+  </si>
+  <si>
+    <t>0.850187265917603</t>
+  </si>
+  <si>
+    <t>0.6228655236232845</t>
+  </si>
+  <si>
+    <t>0.8493977611940303</t>
   </si>
 </sst>
 </file>
@@ -573,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -589,6 +733,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -869,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1279,10 @@
       <c r="S3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>150</v>
       </c>
       <c r="V3" s="2" t="s">
@@ -1170,393 +1318,587 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
+      <c r="C4" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="I4" s="1">
-        <v>4</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="L4" s="1">
         <v>800</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>29</v>
+      <c r="M4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="W4" s="1">
+        <v>100</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
+      <c r="C5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>210</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="L5" s="1">
         <v>800</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="W5" s="1">
+        <v>100</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1">
+        <v>800</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="1">
+        <v>800</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="L8" s="1">
-        <v>800</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="L9" s="1">
-        <v>800</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2"/>
       <c r="L10" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>160</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="G11" s="2"/>
       <c r="L11" s="1">
+        <v>800</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="L12" s="1">
         <v>1000</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="L13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="15" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="1">
-        <v>5</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="1">
-        <v>800</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="1">
-        <v>5</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1500</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I16" s="1">
         <v>5</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="L16" s="1">
         <v>800</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="1">
+        <v>800</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="22" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="242">
   <si>
     <t>File Name</t>
   </si>
@@ -666,13 +666,97 @@
   </si>
   <si>
     <t>0.8493977611940303</t>
+  </si>
+  <si>
+    <t>Hotel_Cancellation_Prediction_Outliers</t>
+  </si>
+  <si>
+    <t>Strings converted into int-values, Outliers (3x) removed</t>
+  </si>
+  <si>
+    <t>Like HCP, only for City Hotels</t>
+  </si>
+  <si>
+    <t>Like HCP, only for Resort Hotels</t>
+  </si>
+  <si>
+    <t>Hotel_Cancellation_Prediction (HCP)</t>
+  </si>
+  <si>
+    <t>0.7728183118741059</t>
+  </si>
+  <si>
+    <t>0.5121552509627683</t>
+  </si>
+  <si>
+    <t>0.8456080114449214</t>
+  </si>
+  <si>
+    <t>0.68120479448548</t>
+  </si>
+  <si>
+    <t>0.8043009310771945</t>
+  </si>
+  <si>
+    <t>0.8186552217453505</t>
+  </si>
+  <si>
+    <t>0.6232580473835998</t>
+  </si>
+  <si>
+    <t>0.8835479256080114</t>
+  </si>
+  <si>
+    <t>0.7567743040976617</t>
+  </si>
+  <si>
+    <t>0.8239198855507869</t>
+  </si>
+  <si>
+    <t>0.6286799370402041</t>
+  </si>
+  <si>
+    <t>0.8393705293276109</t>
+  </si>
+  <si>
+    <t>0.6619508344060401</t>
+  </si>
+  <si>
+    <t>0.8605436337625179</t>
+  </si>
+  <si>
+    <t>0.7093005892962558</t>
+  </si>
+  <si>
+    <t>0.8646065808297568</t>
+  </si>
+  <si>
+    <t>0.7186795075995795</t>
+  </si>
+  <si>
+    <t>0.8765092989985693</t>
+  </si>
+  <si>
+    <t>0.7410676348622762</t>
+  </si>
+  <si>
+    <t>0.8486409155937052</t>
+  </si>
+  <si>
+    <t>0.6868229046848118</t>
+  </si>
+  <si>
+    <t>0.8689556509298999</t>
+  </si>
+  <si>
+    <t>0.7240405286853242</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -689,6 +773,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Var(--vscode-editor-font-family"/>
     </font>
   </fonts>
   <fills count="3">
@@ -717,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -734,6 +829,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1014,13 +1113,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="47.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.7265625" style="1" bestFit="1" customWidth="1"/>
@@ -1031,7 +1130,7 @@
     <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="4" customFormat="1" ht="13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1225,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1221,7 +1320,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1316,589 +1415,717 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>171</v>
+      <c r="C4" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>172</v>
+      <c r="H4" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="I4" s="1">
         <v>5</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>174</v>
+      <c r="J4" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="L4" s="1">
         <v>800</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>176</v>
+      <c r="M4" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="O4" s="1">
         <v>1000</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>180</v>
+      <c r="P4" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>182</v>
+      <c r="U4" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="W4" s="1">
         <v>100</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X4" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>208</v>
+      <c r="C5" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>210</v>
+        <v>169</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>213</v>
+      <c r="H5" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>212</v>
+      <c r="J5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="L5" s="1">
         <v>800</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>192</v>
+      <c r="M5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="O5" s="1">
         <v>1000</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>196</v>
+      <c r="P5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="U5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>198</v>
+      <c r="U5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="W5" s="1">
         <v>100</v>
       </c>
-      <c r="X5" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
+      <c r="H6" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="L6" s="1">
         <v>800</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="W6" s="1">
+        <v>100</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L7" s="1">
         <v>800</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="1">
+        <v>800</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:31" ht="13">
+      <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="L10" s="1">
-        <v>800</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>163</v>
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G11" s="2"/>
       <c r="L11" s="1">
         <v>800</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>160</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="G12" s="2"/>
       <c r="L12" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2"/>
       <c r="L13" s="1">
         <v>1000</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="L14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:31" ht="13">
+      <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="1">
-        <v>5</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="1">
-        <v>800</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I17" s="1">
         <v>5</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L17" s="1">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1">
         <v>5</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L19" s="1">
         <v>800</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
+    <row r="20" spans="1:14">
+      <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:14" ht="13">
+      <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="345">
   <si>
     <t>File Name</t>
   </si>
@@ -750,13 +751,322 @@
   </si>
   <si>
     <t>0.7240405286853242</t>
+  </si>
+  <si>
+    <t>Hotel_Cancellation_Prediction_Outliers - no scaling</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Kappa</t>
+  </si>
+  <si>
+    <t>Random Forest Classifier</t>
+  </si>
+  <si>
+    <t>0.883548</t>
+  </si>
+  <si>
+    <t>0.756774</t>
+  </si>
+  <si>
+    <t>Extra Trees Classifier</t>
+  </si>
+  <si>
+    <t>0.876509</t>
+  </si>
+  <si>
+    <t>0.741068</t>
+  </si>
+  <si>
+    <t>Voting Classifier</t>
+  </si>
+  <si>
+    <t>0.868956</t>
+  </si>
+  <si>
+    <t>0.724041</t>
+  </si>
+  <si>
+    <t>Cat Boost</t>
+  </si>
+  <si>
+    <t>0.864607</t>
+  </si>
+  <si>
+    <t>0.718680</t>
+  </si>
+  <si>
+    <t>0.860544</t>
+  </si>
+  <si>
+    <t>0.709301</t>
+  </si>
+  <si>
+    <t>0.848641</t>
+  </si>
+  <si>
+    <t>0.686823</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier</t>
+  </si>
+  <si>
+    <t>0.845608</t>
+  </si>
+  <si>
+    <t>0.681205</t>
+  </si>
+  <si>
+    <t>Gradient Boosting Classifier</t>
+  </si>
+  <si>
+    <t>0.839371</t>
+  </si>
+  <si>
+    <t>0.661951</t>
+  </si>
+  <si>
+    <t>Ada Boost Classifier</t>
+  </si>
+  <si>
+    <t>0.823920</t>
+  </si>
+  <si>
+    <t>0.628680</t>
+  </si>
+  <si>
+    <t>0.818655</t>
+  </si>
+  <si>
+    <t>0.623258</t>
+  </si>
+  <si>
+    <t>0.772818</t>
+  </si>
+  <si>
+    <t>0.512155</t>
+  </si>
+  <si>
+    <t>Hotel_Cancellation_Prediction:</t>
+  </si>
+  <si>
+    <t>0.894053</t>
+  </si>
+  <si>
+    <t>0.770164</t>
+  </si>
+  <si>
+    <t>0.889774</t>
+  </si>
+  <si>
+    <t>0.759985</t>
+  </si>
+  <si>
+    <t>0.879414</t>
+  </si>
+  <si>
+    <t>0.735213</t>
+  </si>
+  <si>
+    <t>0.876730</t>
+  </si>
+  <si>
+    <t>0.733468</t>
+  </si>
+  <si>
+    <t>0.868258</t>
+  </si>
+  <si>
+    <t>0.714031</t>
+  </si>
+  <si>
+    <t>0.863476</t>
+  </si>
+  <si>
+    <t>0.706467</t>
+  </si>
+  <si>
+    <t>0.856094</t>
+  </si>
+  <si>
+    <t>0.693108</t>
+  </si>
+  <si>
+    <t>0.849425</t>
+  </si>
+  <si>
+    <t>0.668910</t>
+  </si>
+  <si>
+    <t>0.835794</t>
+  </si>
+  <si>
+    <t>0.646068</t>
+  </si>
+  <si>
+    <t>0.838520</t>
+  </si>
+  <si>
+    <t>0.644882</t>
+  </si>
+  <si>
+    <t>0.794313</t>
+  </si>
+  <si>
+    <t>0.535256</t>
+  </si>
+  <si>
+    <t>City Hotels</t>
+  </si>
+  <si>
+    <t>0.890482</t>
+  </si>
+  <si>
+    <t>0.772051</t>
+  </si>
+  <si>
+    <t>0.886061</t>
+  </si>
+  <si>
+    <t>0.762365</t>
+  </si>
+  <si>
+    <t>0.879366</t>
+  </si>
+  <si>
+    <t>0.747202</t>
+  </si>
+  <si>
+    <t>0.875892</t>
+  </si>
+  <si>
+    <t>0.742920</t>
+  </si>
+  <si>
+    <t>0.867555</t>
+  </si>
+  <si>
+    <t>0.724008</t>
+  </si>
+  <si>
+    <t>0.865534</t>
+  </si>
+  <si>
+    <t>0.723245</t>
+  </si>
+  <si>
+    <t>0.853786</t>
+  </si>
+  <si>
+    <t>0.699356</t>
+  </si>
+  <si>
+    <t>0.849113</t>
+  </si>
+  <si>
+    <t>0.683529</t>
+  </si>
+  <si>
+    <t>0.838186</t>
+  </si>
+  <si>
+    <t>0.661616</t>
+  </si>
+  <si>
+    <t>0.831302</t>
+  </si>
+  <si>
+    <t>0.651292</t>
+  </si>
+  <si>
+    <t>0.803006</t>
+  </si>
+  <si>
+    <t>0.580212</t>
+  </si>
+  <si>
+    <t>Resort Hotels</t>
+  </si>
+  <si>
+    <t>0.917853</t>
+  </si>
+  <si>
+    <t>0.790572</t>
+  </si>
+  <si>
+    <t>0.913858</t>
+  </si>
+  <si>
+    <t>0.778000</t>
+  </si>
+  <si>
+    <t>0.907116</t>
+  </si>
+  <si>
+    <t>0.766503</t>
+  </si>
+  <si>
+    <t>0.904120</t>
+  </si>
+  <si>
+    <t>0.758836</t>
+  </si>
+  <si>
+    <t>0.905368</t>
+  </si>
+  <si>
+    <t>0.755352</t>
+  </si>
+  <si>
+    <t>0.882647</t>
+  </si>
+  <si>
+    <t>0.709767</t>
+  </si>
+  <si>
+    <t>0.885019</t>
+  </si>
+  <si>
+    <t>0.703806</t>
+  </si>
+  <si>
+    <t>0.875655</t>
+  </si>
+  <si>
+    <t>0.690779</t>
+  </si>
+  <si>
+    <t>0.876654</t>
+  </si>
+  <si>
+    <t>0.683029</t>
+  </si>
+  <si>
+    <t>0.850187</t>
+  </si>
+  <si>
+    <t>0.622866</t>
+  </si>
+  <si>
+    <t>0.823596</t>
+  </si>
+  <si>
+    <t>0.524509</t>
+  </si>
+  <si>
+    <t>Hotel_Cancellation_Prediction_Outliers:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -785,8 +1095,21 @@
       <color rgb="FFD4D4D4"/>
       <name val="Var(--vscode-editor-font-family"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +1119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E1E1E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -832,6 +1161,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
@@ -1420,7 +1761,7 @@
         <v>214</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>219</v>
@@ -1512,315 +1853,322 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" s="1">
-        <v>800</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="W5" s="1">
-        <v>100</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>190</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="9"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="9"/>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>208</v>
+      <c r="C6" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>210</v>
+        <v>169</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>213</v>
+      <c r="H6" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>212</v>
+      <c r="J6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="L6" s="1">
         <v>800</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>192</v>
+      <c r="M6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="O6" s="1">
         <v>1000</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>196</v>
+      <c r="P6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>198</v>
+      <c r="U6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="W6" s="1">
         <v>100</v>
       </c>
-      <c r="X6" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>206</v>
+      <c r="X6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
+      <c r="H7" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="I7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="L7" s="1">
         <v>800</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>29</v>
+      <c r="M7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="W7" s="1">
+        <v>100</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L8" s="1">
         <v>800</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="1">
+        <v>800</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="13">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:31" ht="13">
+      <c r="A11" s="4" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="L11" s="1">
-        <v>800</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1828,258 +2176,277 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>163</v>
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G12" s="2"/>
       <c r="L12" s="1">
         <v>800</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>160</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="G13" s="2"/>
       <c r="L13" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2"/>
       <c r="L14" s="1">
         <v>1000</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="L15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="13">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:14" ht="13">
+      <c r="A17" s="4" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="1">
-        <v>5</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="1">
-        <v>800</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I18" s="1">
         <v>5</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L18" s="1">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I19" s="1">
         <v>5</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L20" s="1">
         <v>800</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="C20" s="2" t="s">
+    <row r="21" spans="1:14">
+      <c r="C21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="13">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:14" ht="13">
+      <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
@@ -2087,10 +2454,10 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
@@ -2098,10 +2465,10 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
@@ -2109,23 +2476,34 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2133,4 +2511,782 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:G51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" t="s">
+        <v>313</v>
+      </c>
+      <c r="D31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" t="s">
+        <v>315</v>
+      </c>
+      <c r="D32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>319</v>
+      </c>
+      <c r="D34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" t="s">
+        <v>243</v>
+      </c>
+      <c r="F40" t="s">
+        <v>244</v>
+      </c>
+      <c r="H40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" t="s">
+        <v>322</v>
+      </c>
+      <c r="D41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" t="s">
+        <v>324</v>
+      </c>
+      <c r="E42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" t="s">
+        <v>328</v>
+      </c>
+      <c r="F44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16">
+      <c r="A45" s="12">
+        <v>10</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E45" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="12">
+        <v>9</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="F46" t="s">
+        <v>332</v>
+      </c>
+      <c r="G46" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="24">
+      <c r="A47" s="12">
+        <v>5</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16">
+      <c r="A48" s="12">
+        <v>2</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16">
+      <c r="A49" s="12">
+        <v>4</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E49" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="12">
+        <v>1</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="F50" t="s">
+        <v>340</v>
+      </c>
+      <c r="G50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16">
+      <c r="A51" s="12">
+        <v>0</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16">
+      <c r="A52" s="12">
+        <v>2</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="24">
+      <c r="A53" s="12">
+        <v>5</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="16">
+      <c r="A54" s="12">
+        <v>4</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="12">
+        <v>1</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16">
+      <c r="A56" s="12">
+        <v>0</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16">
+      <c r="A60" s="10">
+        <v>3</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16">
+      <c r="A61" s="10">
+        <v>8</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="16">
+      <c r="A62" s="10">
+        <v>10</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="10">
+        <v>7</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="10">
+        <v>6</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="10">
+        <v>9</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16">
+      <c r="A66" s="10">
+        <v>2</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="24">
+      <c r="A67" s="10">
+        <v>5</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16">
+      <c r="A68" s="10">
+        <v>4</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="10">
+        <v>1</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16">
+      <c r="A70" s="10">
+        <v>0</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="370">
   <si>
     <t>File Name</t>
   </si>
@@ -993,18 +993,6 @@
     <t>Resort Hotels</t>
   </si>
   <si>
-    <t>0.917853</t>
-  </si>
-  <si>
-    <t>0.790572</t>
-  </si>
-  <si>
-    <t>0.913858</t>
-  </si>
-  <si>
-    <t>0.778000</t>
-  </si>
-  <si>
     <t>0.907116</t>
   </si>
   <si>
@@ -1017,12 +1005,6 @@
     <t>0.758836</t>
   </si>
   <si>
-    <t>0.905368</t>
-  </si>
-  <si>
-    <t>0.755352</t>
-  </si>
-  <si>
     <t>0.882647</t>
   </si>
   <si>
@@ -1035,12 +1017,6 @@
     <t>0.703806</t>
   </si>
   <si>
-    <t>0.875655</t>
-  </si>
-  <si>
-    <t>0.690779</t>
-  </si>
-  <si>
     <t>0.876654</t>
   </si>
   <si>
@@ -1060,13 +1036,312 @@
   </si>
   <si>
     <t>Hotel_Cancellation_Prediction_Outliers:</t>
+  </si>
+  <si>
+    <t>0.916604</t>
+  </si>
+  <si>
+    <t>0.787208</t>
+  </si>
+  <si>
+    <t>0.911236</t>
+  </si>
+  <si>
+    <t>0.770686</t>
+  </si>
+  <si>
+    <t>0.905993</t>
+  </si>
+  <si>
+    <t>0.757140</t>
+  </si>
+  <si>
+    <t>0.873658</t>
+  </si>
+  <si>
+    <t>0.686590</t>
+  </si>
+  <si>
+    <t>Hotel_Cancellation_Prediction - df1</t>
+  </si>
+  <si>
+    <t>0.7337471688616727</t>
+  </si>
+  <si>
+    <t>0.39634372650197336</t>
+  </si>
+  <si>
+    <t>0.8555070883315158</t>
+  </si>
+  <si>
+    <t>0.6918558664256318</t>
+  </si>
+  <si>
+    <t>0.8191395174980046</t>
+  </si>
+  <si>
+    <t>0.7988004362050164</t>
+  </si>
+  <si>
+    <t>0.5645543378914974</t>
+  </si>
+  <si>
+    <t>0.8917456589212315</t>
+  </si>
+  <si>
+    <t>0.7657748017829711</t>
+  </si>
+  <si>
+    <t>0.8370522607163828</t>
+  </si>
+  <si>
+    <t>0.641014590292734</t>
+  </si>
+  <si>
+    <t>0.8446858485026424</t>
+  </si>
+  <si>
+    <t>0.6584335597566824</t>
+  </si>
+  <si>
+    <t>0.8647764449291166</t>
+  </si>
+  <si>
+    <t>0.7057145903114028</t>
+  </si>
+  <si>
+    <t>0.8708581494841037</t>
+  </si>
+  <si>
+    <t>0.7203522592695416</t>
+  </si>
+  <si>
+    <t>0.8872997231775858</t>
+  </si>
+  <si>
+    <t>0.755241662674244</t>
+  </si>
+  <si>
+    <t>0.8607918798758494</t>
+  </si>
+  <si>
+    <t>0.6993079343080484</t>
+  </si>
+  <si>
+    <r>
+      <t>df1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> df.drop([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'arrival_date_day_of_month'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'arrival_date_week_number'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'assigned_room_type'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'children'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'reservation_status'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'reservation_status_date'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'date'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>axis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>0.8743813438469927</t>
+  </si>
+  <si>
+    <t>0.7237014547344791</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1108,8 +1383,32 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1128,6 +1427,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1141,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1173,6 +1478,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1454,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
@@ -1588,7 +1899,7 @@
       <c r="G2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="14" t="s">
         <v>115</v>
       </c>
       <c r="I2" s="1">
@@ -1758,102 +2069,102 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>220</v>
+        <v>347</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>221</v>
+        <v>348</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>223</v>
+        <v>350</v>
       </c>
       <c r="I4" s="1">
         <v>5</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>224</v>
+        <v>351</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>225</v>
+        <v>352</v>
       </c>
       <c r="L4" s="1">
         <v>800</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>227</v>
+        <v>354</v>
       </c>
       <c r="O4" s="1">
         <v>1000</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>228</v>
+        <v>355</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>229</v>
+        <v>356</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>230</v>
+        <v>357</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>231</v>
+        <v>358</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>104</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>232</v>
+        <v>359</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="W4" s="1">
         <v>100</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>234</v>
+        <v>361</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>235</v>
+        <v>362</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>236</v>
+        <v>363</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>237</v>
+        <v>364</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>238</v>
+        <v>365</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>239</v>
+        <v>366</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>240</v>
+        <v>368</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>241</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>136</v>
@@ -1864,341 +2175,406 @@
       <c r="D5" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="9"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" s="1">
+        <v>800</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="W5" s="1">
+        <v>100</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L6" s="1">
-        <v>800</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="W6" s="1">
-        <v>100</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>190</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="9"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="9"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>208</v>
+      <c r="C7" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>210</v>
+        <v>169</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>213</v>
+      <c r="H7" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>212</v>
+      <c r="J7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="L7" s="1">
         <v>800</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>192</v>
+      <c r="M7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="O7" s="1">
         <v>1000</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>196</v>
+      <c r="P7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="U7" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>198</v>
+      <c r="U7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="W7" s="1">
         <v>100</v>
       </c>
-      <c r="X7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>206</v>
+      <c r="X7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
+      <c r="H8" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="I8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="L8" s="1">
         <v>800</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>29</v>
+      <c r="M8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="W8" s="1">
+        <v>100</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L9" s="1">
         <v>800</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="1">
+        <v>800</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="13">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:31" ht="13">
+      <c r="A12" s="4" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="L12" s="1">
-        <v>800</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -2206,258 +2582,277 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>163</v>
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G13" s="2"/>
       <c r="L13" s="1">
         <v>800</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>160</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="G14" s="2"/>
       <c r="L14" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2"/>
       <c r="L15" s="1">
         <v>1000</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="L16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="13">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:14" ht="13">
+      <c r="A18" s="4" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="1">
-        <v>5</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="1">
-        <v>800</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I19" s="1">
         <v>5</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L19" s="1">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I20" s="1">
         <v>5</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L21" s="1">
         <v>800</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="C21" s="2" t="s">
+    <row r="22" spans="1:14">
+      <c r="C22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="13">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:14" ht="13">
+      <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
@@ -2465,21 +2860,15 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -2487,24 +2876,51 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="15" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -2515,10 +2931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H70"/>
+  <dimension ref="A3:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:G51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
@@ -2840,7 +3256,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2854,7 +3270,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2868,425 +3284,362 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="B40" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F40" t="s">
+      <c r="C40" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="H40" t="s">
+      <c r="D40" s="10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
+    <row r="41" spans="1:4" ht="16">
+      <c r="A41" s="10">
         <v>3</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16">
+      <c r="A42" s="10">
+        <v>8</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="10">
+        <v>6</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" s="11" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
+    <row r="44" spans="1:4">
+      <c r="A44" s="10">
+        <v>7</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16">
+      <c r="A45" s="10">
+        <v>10</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="10">
+        <v>9</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="24">
+      <c r="A47" s="10">
+        <v>5</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16">
+      <c r="A48" s="10">
+        <v>2</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16">
+      <c r="A49" s="10">
+        <v>4</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="10">
+        <v>1</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16">
+      <c r="A51" s="10">
+        <v>0</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C51" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16">
+      <c r="A57" s="10">
+        <v>3</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16">
+      <c r="A58" s="10">
+        <v>8</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D42" t="s">
-        <v>324</v>
-      </c>
-      <c r="E42" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
+      <c r="C58" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16">
+      <c r="A59" s="10">
+        <v>10</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="10">
+        <v>7</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="10">
         <v>6</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B61" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F43" t="s">
-        <v>326</v>
-      </c>
-      <c r="G43" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>255</v>
-      </c>
-      <c r="E44" t="s">
-        <v>328</v>
-      </c>
-      <c r="F44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16">
-      <c r="A45" s="12">
-        <v>10</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="E45" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="12">
+      <c r="C61" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="10">
         <v>9</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B62" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="F46" t="s">
-        <v>332</v>
-      </c>
-      <c r="G46" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="24">
-      <c r="A47" s="12">
+      <c r="C62" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16">
+      <c r="A63" s="10">
+        <v>2</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="24">
+      <c r="A64" s="10">
         <v>5</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B64" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16">
-      <c r="A48" s="12">
-        <v>2</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="16">
-      <c r="A49" s="12">
+      <c r="C64" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16">
+      <c r="A65" s="10">
         <v>4</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B65" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E49" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="12">
+      <c r="C65" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="10">
         <v>1</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="F50" t="s">
-        <v>340</v>
-      </c>
-      <c r="G50" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="16">
-      <c r="A51" s="12">
+      <c r="C66" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16">
+      <c r="A67" s="10">
         <v>0</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B67" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="E51" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="16">
-      <c r="A52" s="12">
-        <v>2</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="24">
-      <c r="A53" s="12">
-        <v>5</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="16">
-      <c r="A54" s="12">
-        <v>4</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="12">
-        <v>1</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="16">
-      <c r="A56" s="12">
-        <v>0</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="13" t="s">
+      <c r="C67" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="16">
-      <c r="A60" s="10">
-        <v>3</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="16">
-      <c r="A61" s="10">
-        <v>8</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="16">
-      <c r="A62" s="10">
-        <v>10</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="10">
-        <v>7</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="10">
-        <v>6</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="10">
-        <v>9</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16">
-      <c r="A66" s="10">
-        <v>2</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="24">
-      <c r="A67" s="10">
-        <v>5</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>266</v>
-      </c>
       <c r="D67" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16">
-      <c r="A68" s="10">
-        <v>4</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="10">
-        <v>1</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="16">
-      <c r="A70" s="10">
-        <v>0</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D70" s="11" t="s">
         <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="392">
   <si>
     <t>File Name</t>
   </si>
@@ -1128,220 +1128,86 @@
     <t>0.6993079343080484</t>
   </si>
   <si>
-    <r>
-      <t>df1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> df.drop([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'arrival_date_day_of_month'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'arrival_date_week_number'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'assigned_room_type'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'children'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'reservation_status'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'reservation_status_date'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'date'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>], </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>axis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>0.8743813438469927</t>
   </si>
   <si>
     <t>0.7237014547344791</t>
+  </si>
+  <si>
+    <t>Hotel_Cancellation_Prediction_Dummy_Standardization2</t>
+  </si>
+  <si>
+    <t>0.8345757601139124</t>
+  </si>
+  <si>
+    <t>0.6366425648324665</t>
+  </si>
+  <si>
+    <t>0.863723929977385</t>
+  </si>
+  <si>
+    <t>0.7078674389501545</t>
+  </si>
+  <si>
+    <t>0.8338415511562286</t>
+  </si>
+  <si>
+    <t>0.7982661864477762</t>
+  </si>
+  <si>
+    <t>0.565973779592631</t>
+  </si>
+  <si>
+    <t>0.8974788508250272</t>
+  </si>
+  <si>
+    <t>0.7760710296843412</t>
+  </si>
+  <si>
+    <t>0.8419884412429852</t>
+  </si>
+  <si>
+    <t>0.6529000264305745</t>
+  </si>
+  <si>
+    <t>0.8533378004858029</t>
+  </si>
+  <si>
+    <t>0.6787807139348698</t>
+  </si>
+  <si>
+    <t>0.8718904430856855</t>
+  </si>
+  <si>
+    <t>0.7211052337490256</t>
+  </si>
+  <si>
+    <t>0.8760783985258397</t>
+  </si>
+  <si>
+    <t>0.7314814498817086</t>
+  </si>
+  <si>
+    <t>0.8868833235614373</t>
+  </si>
+  <si>
+    <t>0.7535945702600654</t>
+  </si>
+  <si>
+    <t>0.8691682720495854</t>
+  </si>
+  <si>
+    <t>0.717687484159987</t>
+  </si>
+  <si>
+    <t>df1 = df.drop(['arrival_date_day_of_month', 'arrival_date_week_number', 'assigned_room_type', 'children', 'reservation_status', 'reservation_status_date', 'date'], axis = 1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1360,17 +1226,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Var(--vscode-editor-font-family"/>
-    </font>
-    <font>
       <b/>
       <sz val="6"/>
       <color rgb="FFD4D4D4"/>
@@ -1380,30 +1235,6 @@
     <font>
       <sz val="6"/>
       <color rgb="FFD4D4D4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFB5CEA8"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -1446,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1463,28 +1294,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1765,13 +1590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE35"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.7265625" style="1" bestFit="1" customWidth="1"/>
@@ -1782,7 +1607,7 @@
     <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" ht="13">
+    <row r="1" spans="1:31" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1877,7 +1702,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1899,7 +1724,7 @@
       <c r="G2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>115</v>
       </c>
       <c r="I2" s="1">
@@ -1972,7 +1797,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2067,234 +1892,224 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="2" t="s">
         <v>349</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="1" t="s">
         <v>350</v>
       </c>
       <c r="I4" s="1">
         <v>5</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="2" t="s">
         <v>352</v>
       </c>
       <c r="L4" s="1">
         <v>800</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="2" t="s">
         <v>354</v>
       </c>
       <c r="O4" s="1">
         <v>1000</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="2" t="s">
         <v>358</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="2" t="s">
         <v>360</v>
       </c>
       <c r="W4" s="1">
         <v>100</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AD4" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="AE4" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="2" t="s">
         <v>222</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="1" t="s">
         <v>223</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="2" t="s">
         <v>225</v>
       </c>
       <c r="L5" s="1">
         <v>800</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="2" t="s">
         <v>227</v>
       </c>
       <c r="O5" s="1">
         <v>1000</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="2" t="s">
         <v>231</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="2" t="s">
         <v>233</v>
       </c>
       <c r="W5" s="1">
         <v>100</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="Z5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AA5" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AB5" s="8" t="s">
+      <c r="AB5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AC5" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AD5" s="8" t="s">
+      <c r="AD5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AE5" s="9" t="s">
+      <c r="AE5" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="9"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="9"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="9"/>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="V6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>166</v>
       </c>
@@ -2307,10 +2122,10 @@
       <c r="D7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>171</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2376,10 +2191,10 @@
       <c r="AA7" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AC7" s="3" t="s">
         <v>188</v>
       </c>
       <c r="AD7" s="1" t="s">
@@ -2389,7 +2204,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>167</v>
       </c>
@@ -2402,10 +2217,10 @@
       <c r="D8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>210</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2471,10 +2286,10 @@
       <c r="AA8" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AB8" s="7" t="s">
+      <c r="AB8" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AC8" s="6" t="s">
         <v>204</v>
       </c>
       <c r="AD8" s="7" t="s">
@@ -2484,7 +2299,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2528,17 +2343,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2572,355 +2387,444 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="13">
-      <c r="A12" s="4" t="s">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L11" s="1">
+        <v>800</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="W11" s="1">
+        <v>100</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="L13" s="1">
-        <v>800</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>163</v>
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G14" s="2"/>
       <c r="L14" s="1">
         <v>800</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>160</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="G15" s="2"/>
       <c r="L15" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2"/>
       <c r="L16" s="1">
         <v>1000</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="L17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="13">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="1">
-        <v>5</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="1">
-        <v>800</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I20" s="1">
         <v>5</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L20" s="1">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I21" s="1">
         <v>5</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L22" s="1">
         <v>800</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="C22" s="2" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="13">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
-        <v>367</v>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -2937,19 +2841,19 @@
       <selection activeCell="A53" sqref="A53:D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>243</v>
       </c>
@@ -2960,7 +2864,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2974,7 +2878,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2988,7 +2892,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3002,7 +2906,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3016,7 +2920,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3030,7 +2934,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3044,7 +2948,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3058,7 +2962,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -3072,7 +2976,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3086,7 +2990,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3100,7 +3004,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3114,12 +3018,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>243</v>
       </c>
@@ -3130,7 +3034,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3144,7 +3048,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -3158,7 +3062,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
@@ -3172,7 +3076,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -3186,7 +3090,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -3200,7 +3104,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -3214,7 +3118,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3228,7 +3132,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3242,7 +3146,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3256,7 +3160,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3270,7 +3174,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3284,357 +3188,357 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16">
-      <c r="A41" s="10">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>3</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16">
-      <c r="A42" s="10">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>8</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="10">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>6</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="10">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>7</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16">
-      <c r="A45" s="10">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>10</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="10">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>9</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24">
-      <c r="A47" s="10">
+    <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>5</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16">
-      <c r="A48" s="10">
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>2</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16">
-      <c r="A49" s="10">
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>4</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="10">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>1</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16">
-      <c r="A51" s="10">
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
         <v>0</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-    </row>
-    <row r="54" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16">
-      <c r="A57" s="10">
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>3</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16">
-      <c r="A58" s="10">
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
         <v>8</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16">
-      <c r="A59" s="10">
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>10</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="10">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
         <v>7</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="10">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
         <v>6</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="10">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
         <v>9</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16">
-      <c r="A63" s="10">
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
         <v>2</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="24">
-      <c r="A64" s="10">
+    <row r="64" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
         <v>5</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16">
-      <c r="A65" s="10">
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
         <v>4</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="10">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
         <v>1</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16">
-      <c r="A67" s="10">
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
         <v>0</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="9" t="s">
         <v>274</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="439">
   <si>
     <t>File Name</t>
   </si>
@@ -1065,45 +1065,6 @@
     <t>Hotel_Cancellation_Prediction - df1</t>
   </si>
   <si>
-    <t>0.7337471688616727</t>
-  </si>
-  <si>
-    <t>0.39634372650197336</t>
-  </si>
-  <si>
-    <t>0.8555070883315158</t>
-  </si>
-  <si>
-    <t>0.6918558664256318</t>
-  </si>
-  <si>
-    <t>0.8191395174980046</t>
-  </si>
-  <si>
-    <t>0.7988004362050164</t>
-  </si>
-  <si>
-    <t>0.5645543378914974</t>
-  </si>
-  <si>
-    <t>0.8917456589212315</t>
-  </si>
-  <si>
-    <t>0.7657748017829711</t>
-  </si>
-  <si>
-    <t>0.8370522607163828</t>
-  </si>
-  <si>
-    <t>0.641014590292734</t>
-  </si>
-  <si>
-    <t>0.8446858485026424</t>
-  </si>
-  <si>
-    <t>0.6584335597566824</t>
-  </si>
-  <si>
     <t>0.8647764449291166</t>
   </si>
   <si>
@@ -1116,24 +1077,6 @@
     <t>0.7203522592695416</t>
   </si>
   <si>
-    <t>0.8872997231775858</t>
-  </si>
-  <si>
-    <t>0.755241662674244</t>
-  </si>
-  <si>
-    <t>0.8607918798758494</t>
-  </si>
-  <si>
-    <t>0.6993079343080484</t>
-  </si>
-  <si>
-    <t>0.8743813438469927</t>
-  </si>
-  <si>
-    <t>0.7237014547344791</t>
-  </si>
-  <si>
     <t>Hotel_Cancellation_Prediction_Dummy_Standardization2</t>
   </si>
   <si>
@@ -1201,6 +1144,204 @@
   </si>
   <si>
     <t>df1 = df.drop(['arrival_date_day_of_month', 'arrival_date_week_number', 'assigned_room_type', 'children', 'reservation_status', 'reservation_status_date', 'date'], axis = 1)</t>
+  </si>
+  <si>
+    <t>0.7929284456002014</t>
+  </si>
+  <si>
+    <t>0.5292299904530133</t>
+  </si>
+  <si>
+    <t>0.855423202751447</t>
+  </si>
+  <si>
+    <t>0.6917461291741038</t>
+  </si>
+  <si>
+    <t>0.8191730885973493</t>
+  </si>
+  <si>
+    <t>0.8351228923748008</t>
+  </si>
+  <si>
+    <t>0.6438462694443294</t>
+  </si>
+  <si>
+    <t>0.8918714872913346</t>
+  </si>
+  <si>
+    <t>0.7658178449396358</t>
+  </si>
+  <si>
+    <t>0.8371361462964516</t>
+  </si>
+  <si>
+    <t>0.6412160267430119</t>
+  </si>
+  <si>
+    <t>0.8447697340827112</t>
+  </si>
+  <si>
+    <t>0.6586338360792796</t>
+  </si>
+  <si>
+    <t>0.8878869222380673</t>
+  </si>
+  <si>
+    <t>0.7566503552690507</t>
+  </si>
+  <si>
+    <t>0.8547940609009311</t>
+  </si>
+  <si>
+    <t>0.6864024184910569</t>
+  </si>
+  <si>
+    <t>0.8750104856975086</t>
+  </si>
+  <si>
+    <t>0.72523148332024</t>
+  </si>
+  <si>
+    <t>df1</t>
+  </si>
+  <si>
+    <t>0.891871</t>
+  </si>
+  <si>
+    <t>0.765818</t>
+  </si>
+  <si>
+    <t>0.887887</t>
+  </si>
+  <si>
+    <t>0.756650</t>
+  </si>
+  <si>
+    <t>0.875010</t>
+  </si>
+  <si>
+    <t>0.725231</t>
+  </si>
+  <si>
+    <t>0.870858</t>
+  </si>
+  <si>
+    <t>0.720352</t>
+  </si>
+  <si>
+    <t>0.864776</t>
+  </si>
+  <si>
+    <t>0.705715</t>
+  </si>
+  <si>
+    <t>0.855423</t>
+  </si>
+  <si>
+    <t>0.691746</t>
+  </si>
+  <si>
+    <t>0.854794</t>
+  </si>
+  <si>
+    <t>0.686402</t>
+  </si>
+  <si>
+    <t>0.844770</t>
+  </si>
+  <si>
+    <t>0.658634</t>
+  </si>
+  <si>
+    <t>0.835123</t>
+  </si>
+  <si>
+    <t>0.643846</t>
+  </si>
+  <si>
+    <t>0.837136</t>
+  </si>
+  <si>
+    <t>0.641216</t>
+  </si>
+  <si>
+    <t>0.792928</t>
+  </si>
+  <si>
+    <t>0.529230</t>
+  </si>
+  <si>
+    <t>test_size = 0.2, random_state = 5</t>
+  </si>
+  <si>
+    <t>0.7954450130022649</t>
+  </si>
+  <si>
+    <t>0.5382356213235995</t>
+  </si>
+  <si>
+    <t>0.8567653720325477</t>
+  </si>
+  <si>
+    <t>0.6937815054649181</t>
+  </si>
+  <si>
+    <t>0.8188710751745305</t>
+  </si>
+  <si>
+    <t>0.8358778625954199</t>
+  </si>
+  <si>
+    <t>0.6459587934744975</t>
+  </si>
+  <si>
+    <t>0.8967787937253586</t>
+  </si>
+  <si>
+    <t>0.7754514454423221</t>
+  </si>
+  <si>
+    <t>0.8396107709084808</t>
+  </si>
+  <si>
+    <t>0.647507979550471</t>
+  </si>
+  <si>
+    <t>0.8482929284456002</t>
+  </si>
+  <si>
+    <t>0.6664395393241713</t>
+  </si>
+  <si>
+    <t>0.8718228336548948</t>
+  </si>
+  <si>
+    <t>0.7218437844876663</t>
+  </si>
+  <si>
+    <t>0.8801275060817045</t>
+  </si>
+  <si>
+    <t>0.7411196496671456</t>
+  </si>
+  <si>
+    <t>0.8929200570421945</t>
+  </si>
+  <si>
+    <t>0.7665557387007033</t>
+  </si>
+  <si>
+    <t>0.8620921063669156</t>
+  </si>
+  <si>
+    <t>0.7028584741439498</t>
+  </si>
+  <si>
+    <t>0.8812599614126332</t>
+  </si>
+  <si>
+    <t>0.7388506752657165</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1380,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1264,6 +1405,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1277,7 +1424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1310,6 +1457,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1590,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1796,7 @@
       <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="15" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -1671,7 +1820,7 @@
       <c r="U1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="15" t="s">
         <v>103</v>
       </c>
       <c r="W1" s="4" t="s">
@@ -1680,13 +1829,13 @@
       <c r="X1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="15" t="s">
         <v>106</v>
       </c>
       <c r="Z1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="15" t="s">
         <v>109</v>
       </c>
       <c r="AB1" s="4" t="s">
@@ -1698,7 +1847,7 @@
       <c r="AD1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="14" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1894,197 +2043,197 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>345</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>415</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>349</v>
+        <v>419</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="I4" s="1">
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>352</v>
+        <v>422</v>
       </c>
       <c r="L4" s="1">
         <v>800</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="O4" s="1">
         <v>1000</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>357</v>
+        <v>427</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>358</v>
+        <v>428</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>104</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="W4" s="1">
         <v>100</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>368</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>373</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>220</v>
+        <v>374</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>221</v>
+        <v>375</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>222</v>
+        <v>376</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>223</v>
+        <v>377</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>224</v>
+        <v>378</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>225</v>
+        <v>379</v>
       </c>
       <c r="L5" s="1">
         <v>800</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>226</v>
+        <v>380</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>227</v>
+        <v>381</v>
       </c>
       <c r="O5" s="1">
         <v>1000</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>228</v>
+        <v>382</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>229</v>
+        <v>383</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>230</v>
+        <v>384</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>231</v>
+        <v>385</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>232</v>
+        <v>346</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>233</v>
+        <v>347</v>
       </c>
       <c r="W5" s="1">
         <v>100</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>234</v>
+        <v>348</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>235</v>
+        <v>349</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>236</v>
+        <v>386</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>237</v>
+        <v>387</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>238</v>
+        <v>388</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>239</v>
+        <v>389</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>241</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>136</v>
@@ -2095,420 +2244,485 @@
       <c r="D6" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AE6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L6" s="1">
+        <v>800</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="W6" s="1">
+        <v>100</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" s="1">
-        <v>800</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="W7" s="1">
-        <v>100</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>190</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>208</v>
+      <c r="C8" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>209</v>
+        <v>169</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>213</v>
+      <c r="H8" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>212</v>
+      <c r="J8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="L8" s="1">
         <v>800</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>192</v>
+      <c r="M8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="O8" s="1">
         <v>1000</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>196</v>
+      <c r="P8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="U8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>198</v>
+      <c r="U8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="W8" s="1">
         <v>100</v>
       </c>
-      <c r="X8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB8" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>206</v>
+      <c r="X8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>207</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
+      <c r="H9" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="I9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="L9" s="1">
         <v>800</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>29</v>
+      <c r="M9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="W9" s="1">
+        <v>100</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB9" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>34</v>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L10" s="1">
         <v>800</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>41</v>
+      <c r="M10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>369</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>373</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>374</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1">
         <v>5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>375</v>
+        <v>38</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>376</v>
+        <v>39</v>
       </c>
       <c r="L11" s="1">
         <v>800</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>377</v>
+        <v>40</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="O11" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L12" s="1">
+        <v>800</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="O12" s="1">
         <v>1000</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="T11" s="2" t="s">
+      <c r="P12" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="U11" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="W11" s="1">
+      <c r="U12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="W12" s="1">
         <v>100</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="X12" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="L14" s="1">
-        <v>800</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2516,274 +2730,293 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>163</v>
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G15" s="2"/>
       <c r="L15" s="1">
         <v>800</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>160</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="G16" s="2"/>
       <c r="L16" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" s="2"/>
       <c r="L17" s="1">
         <v>1000</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="L18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="1">
-        <v>5</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="1">
-        <v>800</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I21" s="1">
         <v>5</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L21" s="1">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I22" s="1">
         <v>5</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1500</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L23" s="1">
         <v>800</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>345</v>
+        <v>218</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
@@ -2791,10 +3024,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
@@ -2802,29 +3035,40 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>391</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2835,10 +3079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D67"/>
+  <dimension ref="A3:D83"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:D67"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3542,6 +3786,177 @@
         <v>274</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>3</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>8</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>10</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>7</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>6</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>2</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>9</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>5</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>1</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>4</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>0</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="4" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="463">
   <si>
     <t>File Name</t>
   </si>
@@ -1342,6 +1343,78 @@
   </si>
   <si>
     <t>0.7388506752657165</t>
+  </si>
+  <si>
+    <t>0.931811</t>
+  </si>
+  <si>
+    <t>0.863627</t>
+  </si>
+  <si>
+    <t>0.930645</t>
+  </si>
+  <si>
+    <t>0.861290</t>
+  </si>
+  <si>
+    <t>K-Fold Decision Tree</t>
+  </si>
+  <si>
+    <t>0.811953</t>
+  </si>
+  <si>
+    <t>0.904816</t>
+  </si>
+  <si>
+    <t>0.809642</t>
+  </si>
+  <si>
+    <t>0.894484</t>
+  </si>
+  <si>
+    <t>0.788964</t>
+  </si>
+  <si>
+    <t>0.876487</t>
+  </si>
+  <si>
+    <t>0.752982</t>
+  </si>
+  <si>
+    <t>0.870488</t>
+  </si>
+  <si>
+    <t>0.740984</t>
+  </si>
+  <si>
+    <t>0.866389</t>
+  </si>
+  <si>
+    <t>0.732787</t>
+  </si>
+  <si>
+    <t>0.842260</t>
+  </si>
+  <si>
+    <t>0.684540</t>
+  </si>
+  <si>
+    <t>0.840927</t>
+  </si>
+  <si>
+    <t>0.681851</t>
+  </si>
+  <si>
+    <t>0.839293</t>
+  </si>
+  <si>
+    <t>0.678582</t>
+  </si>
+  <si>
+    <t>0.776437</t>
+  </si>
+  <si>
+    <t>0.552850</t>
   </si>
 </sst>
 </file>
@@ -1741,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3079,6 +3152,202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D83"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7790"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="464">
   <si>
     <t>File Name</t>
   </si>
@@ -1415,6 +1415,9 @@
   </si>
   <si>
     <t>0.552850</t>
+  </si>
+  <si>
+    <t>Random State = 0</t>
   </si>
 </sst>
 </file>
@@ -1814,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3152,14 +3155,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>463</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="467">
   <si>
     <t>File Name</t>
   </si>
@@ -1418,13 +1418,22 @@
   </si>
   <si>
     <t>Random State = 0</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>SCORE</t>
+  </si>
+  <si>
+    <t>KAPPA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1454,6 +1463,19 @@
       <color rgb="FFD4D4D4"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Tw Cen MT Condensed"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1500,7 +1522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1535,6 +1557,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1817,7 +1841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3356,13 +3380,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D83"/>
+  <dimension ref="A3:I83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:D83"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3374,177 +3401,178 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="7" spans="1:4" ht="23" x14ac:dyDescent="0.5">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+      <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+      <c r="A10" s="16">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="16" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+      <c r="A11" s="16">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="16" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+      <c r="A12" s="16">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+      <c r="A13" s="16">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="16" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+      <c r="A14" s="16">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+      <c r="A15" s="16">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+      <c r="A16" s="16">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.4">
+      <c r="A17" s="16">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="16" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.4">
+      <c r="A18" s="16">
         <v>0</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>243</v>
       </c>
@@ -3554,8 +3582,18 @@
       <c r="D23" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3568,8 +3606,20 @@
       <c r="D24" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -3582,8 +3632,20 @@
       <c r="D25" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="8">
+        <v>8</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
@@ -3596,8 +3658,20 @@
       <c r="D26" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="8">
+        <v>11</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -3610,8 +3684,20 @@
       <c r="D27" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="8">
+        <v>2</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -3624,8 +3710,20 @@
       <c r="D28" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" s="8">
+        <v>10</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -3638,8 +3736,20 @@
       <c r="D29" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" s="8">
+        <v>7</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3652,8 +3762,20 @@
       <c r="D30" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="8">
+        <v>6</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3666,8 +3788,20 @@
       <c r="D31" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="8">
+        <v>9</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3680,8 +3814,20 @@
       <c r="D32" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3694,8 +3840,20 @@
       <c r="D33" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="8">
+        <v>5</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3708,13 +3866,39 @@
       <c r="D34" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="8">
+        <v>4</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>243</v>
@@ -3726,7 +3910,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>3</v>
       </c>
@@ -3740,7 +3924,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>8</v>
       </c>
@@ -3754,7 +3938,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>6</v>
       </c>
@@ -3768,7 +3952,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>7</v>
       </c>
@@ -3782,7 +3966,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>10</v>
       </c>
@@ -3796,7 +3980,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>9</v>
       </c>
@@ -3810,7 +3994,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>5</v>
       </c>
@@ -3824,7 +4008,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>2</v>
       </c>
